--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_10.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1016317.974257946</v>
+        <v>-996644.919531437</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17488934.14183816</v>
+        <v>16784918.28171979</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484446</v>
+        <v>492028.9342484447</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9965175.207617059</v>
+        <v>9994050.177196734</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>324.2261165371872</v>
       </c>
       <c r="E2" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>299.4749694106327</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,25 +817,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>32.78871530216782</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>255.8328893014911</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>139.0184522264541</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>308.3086748172354</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>47.72493570044108</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>115.7469331998928</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1069,10 +1069,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>14.6985274034974</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1133,10 +1133,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>195.2096089697513</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1184,22 +1184,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>133.2664810274453</v>
       </c>
     </row>
     <row r="9">
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>225.0751984808964</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>125.6544692828923</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1382,13 +1382,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>383.8109830557239</v>
+        <v>272.0294929818189</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>16.05512456153223</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149857</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>136.0564930766979</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800595</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394281</v>
+        <v>236.1257352421979</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -2017,7 +2017,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2062,13 +2062,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>129.7139627068455</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>195.152641037667</v>
       </c>
     </row>
     <row r="20">
@@ -2096,10 +2096,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112166</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.412621479131817</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2245,7 +2245,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2254,7 +2254,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>7.264602967362694</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2299,7 +2299,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>234.6314620976453</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317973</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704926</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978614</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>18.05677735225721</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830417</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2716,10 +2716,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2731,7 +2731,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,13 +2773,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>46.45303019605581</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>93.90692437986587</v>
       </c>
     </row>
     <row r="29">
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>113.7218216744503</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3016,7 +3016,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>405.8008644413113</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>417.5253377496635</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>415.3149766385525</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>413.2012870545404</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>407.353044956137</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1481427242214</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>270.0031426724685</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.57964473925399</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>201.6308445169444</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>240.3943693174059</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>342.7550702267644</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>384.5711897043296</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>398.715328447735</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>387.9675521245957</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.6647221930499</v>
+        <v>174.687412269134</v>
       </c>
       <c r="C34" t="n">
-        <v>154.6003840628599</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>147.9835025317452</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>151.8247133730227</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>158.704273159114</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>147.6996518856832</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2674422277819</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432405</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934472</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>141.4132446762359</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>227.1849416185819</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>259.4129604006783</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>267.8502427095265</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>253.070430030824</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>226.7021267811743</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>208.9097636402854</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925401</v>
       </c>
       <c r="T35" t="n">
         <v>201.6308445169444</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C37" t="n">
-        <v>154.6003840628599</v>
+        <v>154.60038406286</v>
       </c>
       <c r="D37" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E37" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F37" t="n">
-        <v>158.7042731591139</v>
+        <v>158.7042731591129</v>
       </c>
       <c r="G37" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432406</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742935114</v>
+        <v>4.967932742934483</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3490,7 +3490,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9097636402854</v>
+        <v>208.9097636402855</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925401</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C40" t="n">
-        <v>154.6003840628599</v>
+        <v>154.60038406286</v>
       </c>
       <c r="D40" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E40" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G40" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432406</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934448</v>
+        <v>4.967932742934483</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3727,7 +3727,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402854</v>
+        <v>208.9097636402855</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925402</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C43" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D43" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F43" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432407</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.96793274293351</v>
+        <v>4.967932742934451</v>
       </c>
       <c r="S43" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T43" t="n">
         <v>227.1849416185819</v>
@@ -3964,7 +3964,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925402</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C46" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628594</v>
       </c>
       <c r="D46" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F46" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432407</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934494</v>
+        <v>4.967932742934455</v>
       </c>
       <c r="S46" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T46" t="n">
         <v>227.1849416185819</v>
@@ -4201,7 +4201,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>949.0361114536327</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="C2" t="n">
-        <v>914.93404267746</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="D2" t="n">
-        <v>486.3523684147282</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F2" t="n">
         <v>33.94366860160834</v>
@@ -4331,19 +4331,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4358,22 +4358,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="W2" t="n">
-        <v>1394.683460978768</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="X2" t="n">
-        <v>1379.581401598483</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="Y2" t="n">
-        <v>1375.33568193854</v>
+        <v>1217.893900270473</v>
       </c>
     </row>
     <row r="3">
@@ -4386,46 +4386,46 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
         <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="M3" t="n">
-        <v>1224.671464618085</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="N3" t="n">
-        <v>1224.671464618085</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O3" t="n">
-        <v>1224.671464618085</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>469.0686756144395</v>
+        <v>409.3619120606587</v>
       </c>
       <c r="C4" t="n">
-        <v>469.0686756144395</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="D4" t="n">
-        <v>469.0686756144395</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="E4" t="n">
-        <v>299.3106718651768</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F4" t="n">
-        <v>122.603617826933</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>68.8461756808652</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>343.6046302520008</v>
+        <v>270.6749755583173</v>
       </c>
       <c r="L4" t="n">
-        <v>761.8145120199619</v>
+        <v>688.8848573262783</v>
       </c>
       <c r="M4" t="n">
-        <v>761.8145120199619</v>
+        <v>1108.937756271182</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4513,25 +4513,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>1418.750429333523</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V4" t="n">
-        <v>1160.333369433027</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="W4" t="n">
-        <v>888.3069650193183</v>
+        <v>741.6032097962661</v>
       </c>
       <c r="X4" t="n">
-        <v>888.3069650193183</v>
+        <v>601.1805307796458</v>
       </c>
       <c r="Y4" t="n">
-        <v>660.8872943334267</v>
+        <v>601.1805307796458</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>2190.493479979994</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1752.351007163417</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X5" t="n">
-        <v>873.1855120707613</v>
+        <v>2216.99836608444</v>
       </c>
       <c r="Y5" t="n">
-        <v>464.8993883704147</v>
+        <v>2212.752646424497</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>973.0996549038641</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C7" t="n">
-        <v>800.5379433870891</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D7" t="n">
-        <v>634.6599505886118</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E7" t="n">
-        <v>464.9019468393491</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F7" t="n">
-        <v>288.1948928011053</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>89.90148899448771</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>509.954387939391</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1682.336432703147</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1682.336432703147</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1682.336432703147</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1682.336432703147</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>1410.310028289439</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1164.918273622851</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y7" t="n">
-        <v>1164.918273622851</v>
+        <v>1160.715522056491</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>328.8057616386386</v>
+        <v>981.4316298953097</v>
       </c>
       <c r="C8" t="n">
-        <v>131.6243384368697</v>
+        <v>543.2891570787331</v>
       </c>
       <c r="D8" t="n">
-        <v>99.75495765171826</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E8" t="n">
-        <v>70.0206168504175</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>46.19359130002928</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>46.19359130002928</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>46.19359130002928</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>45.77680192716929</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>481.0314893800872</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>481.0314893800872</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>481.0314893800872</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>481.0314893800872</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>481.0314893800872</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1006.699321798093</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1573.187245646813</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2119.686031605408</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2288.840096358465</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2205.188222542301</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2205.188222542301</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1945.965919859318</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>1583.348969793145</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W8" t="n">
-        <v>1582.533919244582</v>
+        <v>1961.486270899337</v>
       </c>
       <c r="X8" t="n">
-        <v>1163.391455823893</v>
+        <v>1542.343807478647</v>
       </c>
       <c r="Y8" t="n">
-        <v>755.1053321235464</v>
+        <v>1407.731200380218</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>551.9485469184621</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>445.4920857551044</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>350.4017969016576</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>256.2813822286113</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>172.8975438447729</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>87.51245411095681</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>45.77680192716929</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>45.77680192716929</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>370.3351268933816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>936.8230507421016</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1051.104846679563</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1051.104846679563</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1051.104846679563</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1051.104846679563</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1051.104846679563</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1591.843785311638</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1709.016563405978</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1645.561125854361</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1515.382482184963</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1339.045935184931</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1139.92841724693</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>954.6056629801244</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>799.7382272190044</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>673.2524479982252</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1124.834962539051</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>952.2732510222755</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>786.3952582237982</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>616.6372544745356</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>439.9302004362918</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>274.3389254621194</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>134.436751152494</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>45.77680192716929</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>45.77680192716929</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>201.7114010558225</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>619.9212828237836</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1079.405150004696</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1521.663953162341</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1941.333202388123</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2288.840096358465</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2288.840096358465</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2288.840096358465</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2288.840096358465</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2288.840096358465</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="U10" t="n">
-        <v>2288.840096358465</v>
+        <v>2210.968635687902</v>
       </c>
       <c r="V10" t="n">
-        <v>2061.491411024226</v>
+        <v>1924.013127558332</v>
       </c>
       <c r="W10" t="n">
-        <v>1789.465006610517</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1544.07325194393</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1316.653581258038</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2481.061637500578</v>
+        <v>2399.270093456489</v>
       </c>
       <c r="C11" t="n">
-        <v>2042.919164684002</v>
+        <v>1961.127620639912</v>
       </c>
       <c r="D11" t="n">
-        <v>1607.009379858446</v>
+        <v>1525.217835814356</v>
       </c>
       <c r="E11" t="n">
-        <v>1173.234635016741</v>
+        <v>1091.443090972652</v>
       </c>
       <c r="F11" t="n">
-        <v>745.3672054259491</v>
+        <v>663.5756613818594</v>
       </c>
       <c r="G11" t="n">
-        <v>357.679343753501</v>
+        <v>388.7983957436584</v>
       </c>
       <c r="H11" t="n">
-        <v>68.54918919671719</v>
+        <v>99.6682411868736</v>
       </c>
       <c r="I11" t="n">
-        <v>68.1323998238572</v>
+        <v>99.6682411868736</v>
       </c>
       <c r="J11" t="n">
-        <v>68.1323998238572</v>
+        <v>534.9229286397915</v>
       </c>
       <c r="K11" t="n">
-        <v>68.1323998238572</v>
+        <v>1369.27322059797</v>
       </c>
       <c r="L11" t="n">
-        <v>911.2708476440899</v>
+        <v>2444.333186850829</v>
       </c>
       <c r="M11" t="n">
-        <v>1754.409295464323</v>
+        <v>2459.269667228326</v>
       </c>
       <c r="N11" t="n">
-        <v>2597.547743284556</v>
+        <v>2459.269667228326</v>
       </c>
       <c r="O11" t="n">
-        <v>3406.61999119286</v>
+        <v>3439.449333798633</v>
       </c>
       <c r="P11" t="n">
-        <v>3406.61999119286</v>
+        <v>4267.759208632029</v>
       </c>
       <c r="Q11" t="n">
-        <v>3406.61999119286</v>
+        <v>4814.257994590624</v>
       </c>
       <c r="R11" t="n">
-        <v>3406.61999119286</v>
+        <v>4983.41205934368</v>
       </c>
       <c r="S11" t="n">
-        <v>3322.968117376697</v>
+        <v>4899.760185527517</v>
       </c>
       <c r="T11" t="n">
-        <v>3102.900890249735</v>
+        <v>4679.692958400556</v>
       </c>
       <c r="U11" t="n">
-        <v>2843.678587566752</v>
+        <v>4420.470655717572</v>
       </c>
       <c r="V11" t="n">
-        <v>2481.061637500578</v>
+        <v>4057.853705651399</v>
       </c>
       <c r="W11" t="n">
-        <v>2481.061637500578</v>
+        <v>3652.998251062432</v>
       </c>
       <c r="X11" t="n">
-        <v>2481.061637500578</v>
+        <v>3233.855787641743</v>
       </c>
       <c r="Y11" t="n">
-        <v>2481.061637500578</v>
+        <v>2825.569663941396</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>574.30414481515</v>
+        <v>605.8399861781664</v>
       </c>
       <c r="C12" t="n">
-        <v>467.8476836517923</v>
+        <v>499.3835250148087</v>
       </c>
       <c r="D12" t="n">
-        <v>372.7573947983456</v>
+        <v>404.293236161362</v>
       </c>
       <c r="E12" t="n">
-        <v>278.6369801252993</v>
+        <v>310.1728214883157</v>
       </c>
       <c r="F12" t="n">
-        <v>195.2531417414609</v>
+        <v>226.7889831044773</v>
       </c>
       <c r="G12" t="n">
-        <v>109.8680520076447</v>
+        <v>141.4038933706611</v>
       </c>
       <c r="H12" t="n">
-        <v>68.1323998238572</v>
+        <v>99.6682411868736</v>
       </c>
       <c r="I12" t="n">
-        <v>94.19607298431481</v>
+        <v>125.7319143473312</v>
       </c>
       <c r="J12" t="n">
-        <v>418.7543979505271</v>
+        <v>450.2902393135435</v>
       </c>
       <c r="K12" t="n">
-        <v>1073.460444576251</v>
+        <v>1104.996285939267</v>
       </c>
       <c r="L12" t="n">
-        <v>1073.460444576251</v>
+        <v>1104.996285939267</v>
       </c>
       <c r="M12" t="n">
-        <v>1073.460444576251</v>
+        <v>1104.996285939267</v>
       </c>
       <c r="N12" t="n">
-        <v>1073.460444576251</v>
+        <v>1104.996285939267</v>
       </c>
       <c r="O12" t="n">
-        <v>1073.460444576251</v>
+        <v>1104.996285939267</v>
       </c>
       <c r="P12" t="n">
-        <v>1073.460444576251</v>
+        <v>1104.996285939267</v>
       </c>
       <c r="Q12" t="n">
-        <v>1614.199383208326</v>
+        <v>1645.735224571343</v>
       </c>
       <c r="R12" t="n">
-        <v>1731.372161302666</v>
+        <v>1762.908002665682</v>
       </c>
       <c r="S12" t="n">
-        <v>1667.916723751049</v>
+        <v>1699.452565114065</v>
       </c>
       <c r="T12" t="n">
-        <v>1537.738080081651</v>
+        <v>1569.273921444667</v>
       </c>
       <c r="U12" t="n">
-        <v>1361.401533081619</v>
+        <v>1392.937374444635</v>
       </c>
       <c r="V12" t="n">
-        <v>1162.284015143618</v>
+        <v>1193.819856506635</v>
       </c>
       <c r="W12" t="n">
-        <v>976.9612608768125</v>
+        <v>1008.497102239829</v>
       </c>
       <c r="X12" t="n">
-        <v>822.0938251156924</v>
+        <v>853.6296664787088</v>
       </c>
       <c r="Y12" t="n">
-        <v>695.6080458949132</v>
+        <v>727.1438872579296</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>918.6284369007885</v>
+        <v>1038.824227489129</v>
       </c>
       <c r="C13" t="n">
-        <v>746.0667253840135</v>
+        <v>866.2625159723544</v>
       </c>
       <c r="D13" t="n">
-        <v>580.1887325855362</v>
+        <v>700.3845231738771</v>
       </c>
       <c r="E13" t="n">
-        <v>410.4307288362734</v>
+        <v>530.6265194246143</v>
       </c>
       <c r="F13" t="n">
-        <v>233.7236747980295</v>
+        <v>353.9194653863706</v>
       </c>
       <c r="G13" t="n">
-        <v>68.1323998238572</v>
+        <v>188.3281904121983</v>
       </c>
       <c r="H13" t="n">
-        <v>68.13239982385721</v>
+        <v>188.3281904121983</v>
       </c>
       <c r="I13" t="n">
-        <v>68.13239982385767</v>
+        <v>99.6682411868736</v>
       </c>
       <c r="J13" t="n">
-        <v>154.7120849885475</v>
+        <v>186.2479263515634</v>
       </c>
       <c r="K13" t="n">
-        <v>429.4705395596831</v>
+        <v>461.0063809226991</v>
       </c>
       <c r="L13" t="n">
-        <v>847.6804213276441</v>
+        <v>879.2162626906602</v>
       </c>
       <c r="M13" t="n">
-        <v>1307.164288508557</v>
+        <v>1338.700129871573</v>
       </c>
       <c r="N13" t="n">
-        <v>1749.423091666202</v>
+        <v>1780.958933029218</v>
       </c>
       <c r="O13" t="n">
-        <v>2169.092340891983</v>
+        <v>2200.628182254999</v>
       </c>
       <c r="P13" t="n">
-        <v>2516.599234862325</v>
+        <v>2548.135076225341</v>
       </c>
       <c r="Q13" t="n">
-        <v>2684.792009726657</v>
+        <v>2716.327851089673</v>
       </c>
       <c r="R13" t="n">
-        <v>2684.792009726657</v>
+        <v>2700.110553552772</v>
       </c>
       <c r="S13" t="n">
-        <v>2525.550641024652</v>
+        <v>2540.869184850769</v>
       </c>
       <c r="T13" t="n">
-        <v>2279.671194603107</v>
+        <v>2540.869184850769</v>
       </c>
       <c r="U13" t="n">
-        <v>2142.240393515533</v>
+        <v>2262.436184103874</v>
       </c>
       <c r="V13" t="n">
-        <v>1855.284885385963</v>
+        <v>1975.480675974304</v>
       </c>
       <c r="W13" t="n">
-        <v>1583.258480972255</v>
+        <v>1703.454271560596</v>
       </c>
       <c r="X13" t="n">
-        <v>1337.866726305667</v>
+        <v>1458.062516894008</v>
       </c>
       <c r="Y13" t="n">
-        <v>1110.447055619776</v>
+        <v>1230.642846208117</v>
       </c>
     </row>
     <row r="14">
@@ -5258,16 +5258,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
         <v>102.6776296436396</v>
@@ -5276,52 +5276,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>952.7568773477109</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5458,28 +5458,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2700.681281130897</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T16" t="n">
-        <v>2454.801834709352</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U16" t="n">
-        <v>2176.368833962455</v>
+        <v>2213.112338778418</v>
       </c>
       <c r="V16" t="n">
-        <v>1889.413325832886</v>
+        <v>1926.156830648849</v>
       </c>
       <c r="W16" t="n">
-        <v>1617.386921419177</v>
+        <v>1654.13042623514</v>
       </c>
       <c r="X16" t="n">
-        <v>1371.99516675259</v>
+        <v>1408.738671568553</v>
       </c>
       <c r="Y16" t="n">
-        <v>1144.575496066698</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
         <v>1654.847790009657</v>
@@ -5501,10 +5501,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5516,22 +5516,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>605.8694973157614</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1680.929463568621</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2837.977298779172</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>3963.708282215619</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>4943.887948785925</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
         <v>4943.887948785925</v>
@@ -5558,7 +5558,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477109</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5674,7 +5674,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
         <v>881.8088617745661</v>
@@ -5695,28 +5695,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173567</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1481.601550212351</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.67762964364</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5753,16 +5753,16 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>1368.288338304628</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2443.348304557487</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2443.348304557487</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
         <v>3569.079287993934</v>
@@ -5792,10 +5792,10 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5832,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>790.336856393764</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C22" t="n">
-        <v>617.775144876989</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D22" t="n">
-        <v>451.8971520785117</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E22" t="n">
-        <v>451.8971520785117</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F22" t="n">
-        <v>275.1900980402678</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G22" t="n">
-        <v>109.5988230660955</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008509</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878939</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.966900465231</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798643</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1554751127512</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5990,22 +5990,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>605.8694973157604</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1680.92946356862</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2837.977298779171</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>3963.708282215618</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
         <v>4943.887948785924</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6063,10 +6063,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
         <v>1107.588885023173</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>970.996046390395</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>798.4343348736199</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>632.5563420751427</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>462.7983383258799</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>286.091284287636</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>120.5000093134637</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>120.5000093134637</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6151,7 +6151,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
         <v>1341.292728955479</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752035</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U25" t="n">
-        <v>2194.60800300514</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V25" t="n">
-        <v>1907.65249487557</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W25" t="n">
-        <v>1635.626090461862</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X25" t="n">
-        <v>1390.234335795274</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>1162.814665109382</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G26" t="n">
         <v>391.8077842004234</v>
@@ -6233,43 +6233,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423626</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6300,10 +6300,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
         <v>1107.588885023173</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1015.441008084184</v>
+        <v>922.9010479080736</v>
       </c>
       <c r="C28" t="n">
-        <v>842.8792965674086</v>
+        <v>750.3393363912985</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,7 +6409,7 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176948</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
         <v>2292.381813755403</v>
@@ -6418,16 +6418,16 @@
         <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878939</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1680.07105215565</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1434.679297489062</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1207.259626803171</v>
+        <v>1114.719666627061</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C29" t="n">
         <v>2090.757574835212</v>
       </c>
       <c r="D29" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E29" t="n">
         <v>1221.073045167952</v>
@@ -6464,49 +6464,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2769.623329187108</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N29" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O29" t="n">
-        <v>4875.533979193861</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P29" t="n">
-        <v>4875.533979193861</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2177.511286811513</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1890.555778681944</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1618.529374268236</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1373.137619601648</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2425.390877206711</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
-        <v>2003.64811180301</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
-        <v>1584.138034390331</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E32" t="n">
-        <v>1166.762996961502</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>755.2952747835852</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>370.2971508197252</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>97.56670367581785</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
-        <v>97.56670367581785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>532.8213911287357</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>1367.171683086914</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2442.231649339773</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2442.231649339773</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2523.346856428595</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3503.526522998902</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4331.836397832298</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4878.335183790892</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>4878.335183790892</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>4811.083017387606</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4607.415497673521</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4364.592902403414</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4018.375659750116</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3629.919912574026</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3227.177156566213</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2835.290740278742</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>603.7384486671107</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>497.2819875037529</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>402.1916986503062</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>308.0712839772599</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>224.6874455934215</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>139.3023558596054</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>97.56670367581785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>97.60290339162182</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>422.1612283578341</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>1697.35102760301</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>1006.395564728773</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>851.5281289676531</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>725.0423497468738</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1061.826912397567</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C34" t="n">
-        <v>905.6649082936676</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D34" t="n">
-        <v>756.1866229080664</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E34" t="n">
-        <v>602.8283265716796</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F34" t="n">
-        <v>442.520979946312</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
-        <v>293.3294123850158</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
-        <v>169.8269454882664</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
-        <v>97.56670367581785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>200.2197420758674</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>491.0515498823628</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>925.3347848856838</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>1400.892005301957</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>1859.224161694961</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>2294.966764156103</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>2658.547011361804</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>2842.813139461497</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2837.795025579745</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2694.953364290618</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2465.473625281949</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2203.44033194793</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1932.884531231237</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W34" t="n">
-        <v>1677.257834230405</v>
+        <v>1741.922408594799</v>
       </c>
       <c r="X34" t="n">
-        <v>1448.265786976693</v>
+        <v>1496.530653928212</v>
       </c>
       <c r="Y34" t="n">
-        <v>1237.245823703678</v>
+        <v>1269.11098324232</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C35" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D35" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E35" t="n">
         <v>1166.762996961502</v>
       </c>
       <c r="F35" t="n">
-        <v>755.2952747835857</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G35" t="n">
-        <v>370.2971508197256</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H35" t="n">
         <v>97.56670367581785</v>
@@ -6944,25 +6944,25 @@
         <v>2442.231649339773</v>
       </c>
       <c r="M35" t="n">
-        <v>2523.346856428595</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N35" t="n">
-        <v>2523.346856428595</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O35" t="n">
-        <v>3503.526522998902</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P35" t="n">
-        <v>4331.836397832298</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q35" t="n">
-        <v>4878.335183790892</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R35" t="n">
         <v>4878.335183790892</v>
       </c>
       <c r="S35" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T35" t="n">
         <v>4607.41549767352</v>
@@ -6974,13 +6974,13 @@
         <v>4018.375659750116</v>
       </c>
       <c r="W35" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X35" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y35" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="36">
@@ -7014,22 +7014,22 @@
         <v>123.6303768362754</v>
       </c>
       <c r="J36" t="n">
-        <v>283.1715819490133</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K36" t="n">
-        <v>283.1715819490133</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L36" t="n">
-        <v>283.1715819490133</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M36" t="n">
-        <v>283.1715819490133</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N36" t="n">
-        <v>283.1715819490133</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O36" t="n">
-        <v>283.1715819490133</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P36" t="n">
         <v>1102.894748428211</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397565</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936673</v>
+        <v>905.6649082936664</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080651</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716785</v>
       </c>
       <c r="F37" t="n">
-        <v>442.5209799463119</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G37" t="n">
-        <v>293.3294123850157</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H37" t="n">
-        <v>169.8269454882663</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I37" t="n">
         <v>97.56670367581785</v>
@@ -7105,19 +7105,19 @@
         <v>1400.892005301957</v>
       </c>
       <c r="N37" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O37" t="n">
         <v>2294.966764156103</v>
       </c>
       <c r="P37" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q37" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R37" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S37" t="n">
         <v>2694.953364290617</v>
@@ -7126,7 +7126,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U37" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V37" t="n">
         <v>1932.884531231236</v>
@@ -7135,10 +7135,10 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X37" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y37" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703676</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C38" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835861</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J38" t="n">
         <v>532.8213911287357</v>
@@ -7184,37 +7184,37 @@
         <v>2442.231649339773</v>
       </c>
       <c r="N38" t="n">
-        <v>2523.346856428596</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O38" t="n">
-        <v>3503.526522998903</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P38" t="n">
-        <v>4331.836397832299</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q38" t="n">
-        <v>4878.335183790893</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S38" t="n">
         <v>4811.083017387606</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V38" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y38" t="n">
         <v>2835.290740278742</v>
@@ -7245,10 +7245,10 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
         <v>448.1887018024878</v>
@@ -7309,34 +7309,34 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936672</v>
+        <v>905.6649082936671</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080661</v>
+        <v>756.1866229080659</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716793</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463119</v>
+        <v>442.5209799463116</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850157</v>
+        <v>293.3294123850155</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882661</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823632</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L40" t="n">
-        <v>925.3347848856841</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M40" t="n">
         <v>1400.892005301957</v>
@@ -7354,7 +7354,7 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S40" t="n">
         <v>2694.953364290617</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G41" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
         <v>532.8213911287357</v>
       </c>
       <c r="K41" t="n">
-        <v>1367.171683086914</v>
+        <v>804.8435481793842</v>
       </c>
       <c r="L41" t="n">
-        <v>2442.231649339773</v>
+        <v>1879.903514432244</v>
       </c>
       <c r="M41" t="n">
-        <v>2442.231649339773</v>
+        <v>3036.951349642794</v>
       </c>
       <c r="N41" t="n">
-        <v>2442.231649339773</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="O41" t="n">
-        <v>3422.411315910079</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="P41" t="n">
-        <v>4250.721190743476</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037837</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V41" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X41" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I42" t="n">
-        <v>97.56670367581786</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
-        <v>97.56670367581786</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K42" t="n">
-        <v>400.344360043353</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L42" t="n">
-        <v>400.344360043353</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M42" t="n">
-        <v>400.344360043353</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N42" t="n">
-        <v>400.344360043353</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O42" t="n">
-        <v>400.344360043353</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P42" t="n">
-        <v>1220.067526522551</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q42" t="n">
-        <v>1760.806465154627</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R42" t="n">
         <v>1760.806465154627</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936676</v>
+        <v>905.6649082936672</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080664</v>
+        <v>756.1866229080661</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716798</v>
+        <v>602.8283265716794</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463121</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H43" t="n">
         <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7573,7 +7573,7 @@
         <v>491.0515498823631</v>
       </c>
       <c r="L43" t="n">
-        <v>925.3347848856839</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M43" t="n">
         <v>1400.892005301957</v>
@@ -7591,28 +7591,28 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.440331947931</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X43" t="n">
         <v>1448.265786976693</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="44">
@@ -7625,73 +7625,73 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D44" t="n">
         <v>1584.13803439033</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J44" t="n">
-        <v>97.56670367581786</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K44" t="n">
-        <v>540.31673232073</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>1615.376698573589</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M44" t="n">
-        <v>2772.42453378414</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N44" t="n">
-        <v>3898.155517220587</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O44" t="n">
-        <v>4878.335183790893</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P44" t="n">
-        <v>4878.335183790893</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q44" t="n">
-        <v>4878.335183790893</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V44" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X44" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="45">
@@ -7719,28 +7719,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I45" t="n">
-        <v>97.60290339162182</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>422.1612283578341</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="P45" t="n">
         <v>1102.894748428211</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936676</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080664</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716798</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463121</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
@@ -7813,13 +7813,13 @@
         <v>925.334784885684</v>
       </c>
       <c r="M46" t="n">
-        <v>1400.892005301956</v>
+        <v>1400.892005301957</v>
       </c>
       <c r="N46" t="n">
         <v>1859.224161694961</v>
       </c>
       <c r="O46" t="n">
-        <v>2294.966764156102</v>
+        <v>2294.966764156103</v>
       </c>
       <c r="P46" t="n">
         <v>2658.547011361804</v>
@@ -7828,7 +7828,7 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S46" t="n">
         <v>2694.953364290617</v>
@@ -7837,19 +7837,19 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V46" t="n">
         <v>1932.884531231236</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8052,31 +8052,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M3" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,25 +8134,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>35.25505765581501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>151.6683048404233</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8231,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,19 +8371,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L7" t="n">
-        <v>56.52305090189834</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,7 +8453,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,10 +8465,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>530.977608503036</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>572.2100240896161</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8526,16 +8526,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>572.2100240896161</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>115.436157512587</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8608,10 +8608,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>157.5096960895487</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>851.6549977982149</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>851.6549977982149</v>
+        <v>15.08735391666414</v>
       </c>
       <c r="N11" t="n">
-        <v>851.6549977982149</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>817.2446948568731</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8933,22 +8933,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>973.8822356326327</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9164,25 +9164,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>69.04441372935742</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9401,19 +9401,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>839.1644551322528</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9480,22 +9480,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9638,25 +9638,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>69.04441372935651</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352437</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10112,25 +10112,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>69.04441372935526</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>81.93455261497229</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10370,7 +10370,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,13 +10422,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03656536949897315</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>81.93455261497229</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10604,10 +10604,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>463.0908366609701</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>161.1527324371089</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10832,19 +10832,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>81.9345526149732</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>747.7485021910729</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,25 +11060,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>274.7698556067157</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.090836660971</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>305.8360165328638</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>447.222251156477</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>463.0908366609692</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.03656536949895894</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>107.3245704401127</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>138.0473790994395</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>13.57287000724483</v>
+        <v>125.3543600811498</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23434,7 +23434,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>5.148518520149608</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>139.5921776627278</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627276</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>39.52293549722776</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>139.5921776627259</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>29.99283294136578</v>
       </c>
     </row>
     <row r="20">
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.2385495991665</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>34.6746782719261</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665293</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>69.71657238081421</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168186</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,10 +24604,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>222.8531101735156</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>131.2385495991669</v>
       </c>
     </row>
     <row r="29">
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>161.9268490649754</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>15.21302026266321</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-13</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>847146.006003071</v>
+        <v>678422.0520889761</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>847146.006003071</v>
+        <v>864606.1088838052</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>857764.3905004736</v>
+        <v>864606.1088838052</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>663153.0001948948</v>
+        <v>867554.4054548913</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>884358.4884639988</v>
+        <v>884358.4884639987</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>895056.650865681</v>
+        <v>884358.4884639988</v>
       </c>
     </row>
     <row r="13">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>134036.8299726021</v>
+        <v>105916.1709869196</v>
       </c>
       <c r="C2" t="n">
         <v>134036.8299726021</v>
@@ -26320,16 +26320,16 @@
         <v>134036.8299726021</v>
       </c>
       <c r="E2" t="n">
-        <v>98768.54017734193</v>
+        <v>129211.6331012885</v>
       </c>
       <c r="F2" t="n">
-        <v>131714.396034338</v>
+        <v>131714.3960343381</v>
       </c>
       <c r="G2" t="n">
         <v>131714.396034338</v>
       </c>
       <c r="H2" t="n">
-        <v>131714.3960343381</v>
+        <v>131714.396034338</v>
       </c>
       <c r="I2" t="n">
         <v>131714.396034338</v>
@@ -26338,10 +26338,10 @@
         <v>131714.396034338</v>
       </c>
       <c r="K2" t="n">
+        <v>131714.3960343381</v>
+      </c>
+      <c r="L2" t="n">
         <v>131714.396034338</v>
-      </c>
-      <c r="L2" t="n">
-        <v>134036.8299726021</v>
       </c>
       <c r="M2" t="n">
         <v>134036.8299726021</v>
@@ -26350,7 +26350,7 @@
         <v>134036.8299726021</v>
       </c>
       <c r="O2" t="n">
-        <v>134036.8299726021</v>
+        <v>134036.8299726022</v>
       </c>
       <c r="P2" t="n">
         <v>134036.8299726021</v>
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>78577.04195825371</v>
       </c>
       <c r="D3" t="n">
-        <v>45946.57756148744</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>83436.12135996601</v>
+        <v>172678.9461051186</v>
       </c>
       <c r="F3" t="n">
-        <v>122233.5690936862</v>
+        <v>9285.588063940675</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>111014.4653449901</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>62596.87743601676</v>
       </c>
       <c r="L3" t="n">
-        <v>35573.7660402988</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>69638.80522807766</v>
+        <v>142490.1932325284</v>
       </c>
       <c r="N3" t="n">
-        <v>104487.2066667921</v>
+        <v>7937.468947798097</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212093.1194372179</v>
+        <v>147891.7342679856</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.1194372179</v>
+        <v>173889.535266443</v>
       </c>
       <c r="D4" t="n">
-        <v>188859.5595507076</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
-        <v>71146.40278053607</v>
+        <v>93075.61776299322</v>
       </c>
       <c r="F4" t="n">
-        <v>94878.44464875283</v>
+        <v>94878.44464875286</v>
       </c>
       <c r="G4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875285</v>
       </c>
       <c r="H4" t="n">
+        <v>94878.44464875285</v>
+      </c>
+      <c r="I4" t="n">
         <v>94878.44464875289</v>
-      </c>
-      <c r="I4" t="n">
-        <v>94878.44464875288</v>
       </c>
       <c r="J4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="K4" t="n">
-        <v>94878.44464875286</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="L4" t="n">
-        <v>107302.2988178706</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="M4" t="n">
-        <v>107302.2988178706</v>
+        <v>107302.2988178705</v>
       </c>
       <c r="N4" t="n">
         <v>107302.2988178706</v>
@@ -26457,7 +26457,7 @@
         <v>107302.2988178706</v>
       </c>
       <c r="P4" t="n">
-        <v>107302.2988178705</v>
+        <v>107302.2988178706</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26470,16 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>68417.96946464866</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>51780.62386613146</v>
+        <v>75747.86330202394</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26491,25 +26491,25 @@
         <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="K5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>75515.61472608971</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
         <v>75515.61472608971</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.6147260897</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-279672.3782615481</v>
+        <v>-243872.8586678551</v>
       </c>
       <c r="C6" t="n">
-        <v>-137481.0776018382</v>
+        <v>-192642.2718138524</v>
       </c>
       <c r="D6" t="n">
-        <v>-169187.2766042415</v>
+        <v>-114065.2298555987</v>
       </c>
       <c r="E6" t="n">
-        <v>-107594.6078292916</v>
+        <v>-212339.0460375605</v>
       </c>
       <c r="F6" t="n">
-        <v>-163115.8563138935</v>
+        <v>-50191.09962353062</v>
       </c>
       <c r="G6" t="n">
-        <v>-40882.28722020738</v>
+        <v>-40905.51155958999</v>
       </c>
       <c r="H6" t="n">
-        <v>-40882.28722020733</v>
+        <v>-40905.51155958996</v>
       </c>
       <c r="I6" t="n">
-        <v>-40882.28722020733</v>
+        <v>-40905.51155959001</v>
       </c>
       <c r="J6" t="n">
-        <v>-151896.7525651975</v>
+        <v>-151919.9769045801</v>
       </c>
       <c r="K6" t="n">
-        <v>-40882.28722020733</v>
+        <v>-103502.3889956067</v>
       </c>
       <c r="L6" t="n">
-        <v>-84354.84961165691</v>
+        <v>-40905.51155959001</v>
       </c>
       <c r="M6" t="n">
-        <v>-118419.8887994358</v>
+        <v>-191271.2768038865</v>
       </c>
       <c r="N6" t="n">
-        <v>-153268.2902381503</v>
+        <v>-56718.55251915623</v>
       </c>
       <c r="O6" t="n">
-        <v>-48781.08357135812</v>
+        <v>-48781.08357135815</v>
       </c>
       <c r="P6" t="n">
         <v>-48781.08357135812</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="3">
@@ -26790,13 +26790,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>572.2100240896161</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>851.6549977982149</v>
+        <v>1245.85301483592</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26817,7 +26817,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="L4" t="n">
-        <v>1219.583795947723</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
         <v>1219.583795947723</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>243.2193490877526</v>
       </c>
       <c r="D4" t="n">
-        <v>147.9141665695118</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>279.4449737085988</v>
+        <v>578.3378082280632</v>
       </c>
       <c r="F4" t="n">
-        <v>426.6055055865302</v>
+        <v>32.40748854882515</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201042</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>243.2193490877528</v>
       </c>
       <c r="L4" t="n">
-        <v>89.23745913248951</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>279.4449737085988</v>
+        <v>519.6611007910409</v>
       </c>
       <c r="N4" t="n">
-        <v>426.6055055865304</v>
+        <v>32.40748854882515</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>243.2193490877526</v>
       </c>
       <c r="L4" t="n">
-        <v>147.9141665695118</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>279.4449737085988</v>
+        <v>578.3378082280632</v>
       </c>
       <c r="N4" t="n">
-        <v>426.6055055865302</v>
+        <v>32.40748854882515</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>101.3319306324443</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,19 +27537,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -27585,25 +27585,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>28.25306374678277</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>103.9193848934675</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>113.7278999628232</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>367.2261030860413</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>74.15349933190446</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>142.9504276114859</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>238.5514391186597</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>270.9367814358977</v>
       </c>
     </row>
     <row r="9">
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>59.01075456737746</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>143.6516710866791</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D35" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E35" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F35" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G35" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H35" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T35" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U35" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V35" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W35" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X35" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34699,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34772,31 +34772,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M3" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>35.25505765581501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>151.6683048404233</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34951,10 +34951,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L7" t="n">
-        <v>56.52305090189834</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>530.977608503036</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>572.2100240896161</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>572.2100240896161</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>115.436157512587</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35328,16 +35328,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>157.5096960895487</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>851.6549977982149</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>851.6549977982149</v>
+        <v>15.08735391666414</v>
       </c>
       <c r="N11" t="n">
-        <v>851.6549977982149</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>817.2446948568731</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35571,7 +35571,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35580,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>973.8822356326327</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35884,25 +35884,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>69.04441372935742</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -36045,7 +36045,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36121,19 +36121,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>839.1644551322528</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36200,22 +36200,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36358,25 +36358,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>69.04441372935651</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
         <v>170.862691669754</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908064</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352437</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36832,25 +36832,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081364</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>69.04441372935526</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
         <v>170.862691669754</v>
@@ -37069,7 +37069,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37078,7 +37078,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>81.93455261497229</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37090,7 +37090,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03656536949897315</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>103.6899377778278</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>293.7695028348439</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>438.6699343467889</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>480.3608287033061</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
-        <v>462.9617741343479</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>440.1440428900419</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
-        <v>367.2527749552542</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>186.1274021209015</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>81.93455261497229</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -37321,13 +37321,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>463.0908366609701</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>161.1527324371089</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37473,10 +37473,10 @@
         <v>480.3608287033061</v>
       </c>
       <c r="N37" t="n">
-        <v>462.9617741343482</v>
+        <v>462.9617741343479</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P37" t="n">
         <v>367.2527749552542</v>
@@ -37552,19 +37552,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>81.9345526149732</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>747.7485021910729</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37701,13 +37701,13 @@
         <v>103.689937777828</v>
       </c>
       <c r="K40" t="n">
-        <v>293.769502834844</v>
+        <v>293.7695028348439</v>
       </c>
       <c r="L40" t="n">
         <v>438.6699343467889</v>
       </c>
       <c r="M40" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N40" t="n">
         <v>462.9617741343479</v>
@@ -37780,25 +37780,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>274.7698556067157</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458551</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.090836660971</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>170.862691669754</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>305.8360165328638</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37874,13 +37874,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37941,16 +37941,16 @@
         <v>293.7695028348439</v>
       </c>
       <c r="L43" t="n">
-        <v>438.6699343467888</v>
+        <v>438.6699343467889</v>
       </c>
       <c r="M43" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N43" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P43" t="n">
         <v>367.2527749552542</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>447.222251156477</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>463.0908366609692</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.03656536949895894</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38181,19 +38181,19 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M46" t="n">
-        <v>480.3608287033056</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N46" t="n">
-        <v>462.9617741343477</v>
+        <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P46" t="n">
         <v>367.2527749552542</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
